--- a/imageCreationExcel/back/115/115_11.xlsx
+++ b/imageCreationExcel/back/115/115_11.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,15 +495,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.065007802401376</v>
+        <v>1.076904420788259</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8320372674697184</v>
+        <v>0.8003707256008417</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,14 +511,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>26.57339113374428</v>
+        <v>27.141835260326</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_P_contrast1.065_gamma0.832_equalization26.573.jpg</t>
+          <t>1_E_contrast1.077_sharpness0.8_equalization27.142.jpg</t>
         </is>
       </c>
     </row>
@@ -533,34 +533,34 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5351623211068512</v>
+        <v>1.099630791437149</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.106669389135163</v>
+        <v>0.1625488379369819</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.8856540126293219</v>
+        <v>15.77230585433861</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_9_brightness0.535_contrast1.107_sharpness0.886.jpg</t>
+          <t>2_9_contrast1.1_sharpness0.163_equalization15.772.jpg</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9.147356636975111</v>
+        <v>14.33020793162596</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -587,22 +587,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.191597272766002</v>
+        <v>1.004273695137522</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.673102646387016</v>
+        <v>1.01585277576838</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_I_brightness9.147_contrast1.192_sharpness0.673.jpg</t>
+          <t>3_0_brightness14.33_contrast1.004_gamma1.016.jpg</t>
         </is>
       </c>
     </row>
@@ -612,16 +612,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.089937451090672</v>
+        <v>0.9540775243184766</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.2939230472805295</v>
+        <v>0.5893400877865762</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7.006410239964986</v>
+        <v>19.4021770788654</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_P_contrast1.09_sharpness0.294_equalization7.006.jpg</t>
+          <t>4_8_gamma0.954_sharpness0.589_equalization19.402.jpg</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -663,30 +663,30 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5.410904079733551</v>
+        <v>14.84616402531489</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.142386110102513</v>
+        <v>1.038462183312308</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1.025975441750295</v>
+        <v>0.7394274455849099</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_T_brightness5.411_contrast1.142_gamma1.026.jpg</t>
+          <t>5_2_brightness14.846_gamma1.038_sharpness0.739.jpg</t>
         </is>
       </c>
     </row>
@@ -696,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5.938292306943751</v>
+        <v>0.694558783401823</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.118297699666938</v>
+        <v>0.2458641710285945</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.8112431347989222</v>
+        <v>25.64250888447831</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_2_brightness5.938_contrast1.118_sharpness0.811.jpg</t>
+          <t>6_T_gamma0.695_sharpness0.246_equalization25.643.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.01305064376001</v>
+        <v>9.600413654477419</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.602493350486845</v>
+        <v>0.9921769134943912</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>21.72989583322789</v>
+        <v>0.7815961062873077</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_S_gamma1.013_sharpness0.602_equalization21.73.jpg</t>
+          <t>7_B_brightness9.6_contrast0.992_gamma0.782.jpg</t>
         </is>
       </c>
     </row>
@@ -780,16 +780,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.106570493182894</v>
+        <v>3.073713801854664</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.7849781515685162</v>
+        <v>0.7527113799334685</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.8991431909262202</v>
+        <v>0.9311774044587815</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_0_contrast1.107_gamma0.785_sharpness0.899.jpg</t>
+          <t>8_B_brightness3.074_gamma0.753_sharpness0.931.jpg</t>
         </is>
       </c>
     </row>
@@ -822,16 +822,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9502954396459615</v>
+        <v>2.783260475562855</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -839,22 +839,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.9222382835706842</v>
+        <v>0.5869024052655556</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>23.35410404142954</v>
+        <v>0.6648769139738857</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_I_contrast0.95_gamma0.922_equalization23.354.jpg</t>
+          <t>9_9_brightness2.783_gamma0.587_sharpness0.665.jpg</t>
         </is>
       </c>
     </row>
@@ -864,39 +864,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9737155610139343</v>
+        <v>29.35509940732091</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.04693178240510323</v>
+        <v>0.8679071093215013</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>19.00693626678511</v>
+        <v>0.1682832470280544</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_7_contrast0.974_sharpness0.047_equalization19.007.jpg</t>
+          <t>10_1_brightness29.355_gamma0.868_sharpness0.168.jpg</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,15 +915,15 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>23.81478448730378</v>
+        <v>18.35967874752728</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.7604394020780242</v>
+        <v>1.147595559779957</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.2246685162257011</v>
+        <v>0.4114991031185868</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_3_brightness23.815_gamma0.76_sharpness0.225.jpg</t>
+          <t>11_S_brightness18.36_contrast1.148_sharpness0.411.jpg</t>
         </is>
       </c>
     </row>
@@ -948,39 +948,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.042938799248057</v>
+        <v>22.63894604414538</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9657302029835817</v>
+        <v>0.7969742899324919</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>30.08615544953621</v>
+        <v>0.536169584263495</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_P_gamma1.043_sharpness0.966_equalization30.086.jpg</t>
+          <t>12_9_brightness22.639_gamma0.797_sharpness0.536.jpg</t>
         </is>
       </c>
     </row>
@@ -990,39 +990,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.9487001362733587</v>
+        <v>0.9320687826154327</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.5306485983870242</v>
+        <v>0.6962661603026357</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>17.93208408413726</v>
+        <v>0.966361982380247</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_0_gamma0.949_sharpness0.531_equalization17.932.jpg</t>
+          <t>13_I_contrast0.932_gamma0.696_sharpness0.966.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,16 +1032,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.9860016894607841</v>
+        <v>9.82483160886224</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.024805814971654</v>
+        <v>0.6116463050175026</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1057,14 +1057,14 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.5492961291894392</v>
+        <v>0.2130986111862044</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_I_contrast0.986_gamma1.025_sharpness0.549.jpg</t>
+          <t>14_C_brightness9.825_gamma0.612_sharpness0.213.jpg</t>
         </is>
       </c>
     </row>
@@ -1079,34 +1079,34 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.141783440121458</v>
+        <v>15.76232634484877</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.3819796920234149</v>
+        <v>0.8238317690890842</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>24.60179737492166</v>
+        <v>1.097875865595004</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_I_contrast1.142_sharpness0.382_equalization24.602.jpg</t>
+          <t>15_I_brightness15.762_contrast0.824_gamma1.098.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,39 +1116,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.9769605765280601</v>
+        <v>18.90896967793272</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.083564061328088</v>
+        <v>1.07141247765635</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>31.9504350655463</v>
+        <v>0.844689646509782</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_0_contrast0.977_gamma1.084_equalization31.95.jpg</t>
+          <t>16_8_brightness18.909_contrast1.071_gamma0.845.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,39 +1158,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>21.60940692145913</v>
+        <v>0.7950467941480667</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.123710597946455</v>
+        <v>0.8347099340595336</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.8442412249883127</v>
+        <v>14.87981593372665</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_0_brightness21.609_contrast1.124_sharpness0.844.jpg</t>
+          <t>17_C_gamma0.795_sharpness0.835_equalization14.88.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.9940025275502669</v>
+        <v>3.424291553413249</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.9367968140156075</v>
+        <v>0.8870679949031195</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>24.55052021018665</v>
+        <v>0.6609697273116906</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_T_gamma0.994_sharpness0.937_equalization24.551.jpg</t>
+          <t>18_E_brightness3.424_contrast0.887_sharpness0.661.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,16 +1242,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.04043669240419</v>
+        <v>0.7688809970346411</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.1099265415663104</v>
+        <v>0.872153026060418</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1267,14 +1267,14 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>16.3866076009923</v>
+        <v>20.36116433850244</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_7_contrast1.04_sharpness0.11_equalization16.387.jpg</t>
+          <t>19_P_gamma0.769_sharpness0.872_equalization20.361.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.042346671294408</v>
+        <v>0.7179040370865665</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.8397560790885384</v>
+        <v>0.48967225177651</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1309,14 +1309,14 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>27.17064037063918</v>
+        <v>30.82445194069976</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_9_gamma1.042_sharpness0.84_equalization27.171.jpg</t>
+          <t>20_8_gamma0.718_sharpness0.49_equalization30.824.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,39 +1326,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>22.45795496376321</v>
+        <v>1.050083685240748</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.9650680101671399</v>
+        <v>0.339232794449652</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.01990087740503</v>
+        <v>23.48998595327366</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_2_brightness22.458_contrast0.965_gamma1.02.jpg</t>
+          <t>21_T_contrast1.05_sharpness0.339_equalization23.49.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,39 +1368,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.195742383777582</v>
+        <v>8.799879097077111</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.8466370667042746</v>
+        <v>1.063896763556058</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.9238993395921311</v>
+        <v>0.8196407081467803</v>
       </c>
       <c r="I23" t="n">
         <v>2</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_B_contrast1.196_gamma0.847_sharpness0.924.jpg</t>
+          <t>22_9_brightness8.8_contrast1.064_gamma0.82.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.141084771248442</v>
+        <v>1.173469580864988</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.8933083934234678</v>
+        <v>0.2465522781439582</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>12.49080121952954</v>
+        <v>24.68540372721932</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_B_contrast1.141_sharpness0.893_equalization12.491.jpg</t>
+          <t>23_C_contrast1.173_sharpness0.247_equalization24.685.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,39 +1452,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>24.49079295736061</v>
+        <v>0.9831897186047345</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.9547396960851448</v>
+        <v>0.8336301854814829</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.9772192871947486</v>
+        <v>14.82796251628112</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_S_brightness24.491_contrast0.955_gamma0.977.jpg</t>
+          <t>24_C_contrast0.983_gamma0.834_equalization14.828.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,16 +1494,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.9439421603409048</v>
+        <v>3.933965199261196</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.012761326740701</v>
+        <v>0.9858682214253558</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.3657196836033867</v>
+        <v>0.9949098690287623</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_2_contrast0.944_gamma1.013_sharpness0.366.jpg</t>
+          <t>25_3_brightness3.934_gamma0.986_sharpness0.995.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,39 +1536,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.032959938438075</v>
+        <v>15.14828915423982</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.8248529198164576</v>
+        <v>1.142751878424045</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>24.85527255663957</v>
+        <v>0.0106576701728699</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_E_gamma1.033_sharpness0.825_equalization24.855.jpg</t>
+          <t>26_8_brightness15.148_contrast1.143_sharpness0.011.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.187077571683208</v>
+        <v>11.66561696614398</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.5733922659093659</v>
+        <v>0.8402871233117034</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>27.48541851368084</v>
+        <v>1.074474135937744</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_8_contrast1.187_sharpness0.573_equalization27.485.jpg</t>
+          <t>27_1_brightness11.666_contrast0.84_gamma1.074.jpg</t>
         </is>
       </c>
     </row>
@@ -1625,34 +1625,34 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.076383154110436</v>
+        <v>19.36082077191899</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.7089655128022908</v>
+        <v>0.9546828900206834</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>11.65755709188768</v>
+        <v>0.8492992886993604</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_B_contrast1.076_sharpness0.709_equalization11.658.jpg</t>
+          <t>28_B_brightness19.361_contrast0.955_gamma0.849.jpg</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.008118719516205</v>
+        <v>1.049577227831585</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.5180265491390779</v>
+        <v>0.6283214030964984</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1687,14 +1687,14 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>23.44996426353383</v>
+        <v>14.7206542206624</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_1_gamma1.008_sharpness0.518_equalization23.45.jpg</t>
+          <t>29_1_gamma1.05_sharpness0.628_equalization14.721.jpg</t>
         </is>
       </c>
     </row>
@@ -1709,34 +1709,34 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>10.87914767169233</v>
+        <v>1.003794204313371</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.8885010942393006</v>
+        <v>1.031091247996291</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.5868186619577138</v>
+        <v>0.09144134149074086</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_7_brightness10.879_contrast0.889_gamma0.587.jpg</t>
+          <t>30_7_contrast1.004_gamma1.031_sharpness0.091.jpg</t>
         </is>
       </c>
     </row>
@@ -1751,11 +1751,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.9657821529501238</v>
+        <v>0.8066352315911782</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.5561889874612196</v>
+        <v>0.4712461899568981</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>30.88163208691259</v>
+        <v>6.177457766552768</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_3_gamma0.966_sharpness0.556_equalization30.882.jpg</t>
+          <t>31_3_contrast0.807_sharpness0.471_equalization6.177.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,39 +1788,39 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.090529446964951</v>
+        <v>26.94891691083034</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.4359350130963406</v>
+        <v>0.8278323085664128</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>30.77061783184864</v>
+        <v>0.766283134741476</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_S_contrast1.091_sharpness0.436_equalization30.771.jpg</t>
+          <t>32_1_brightness26.949_contrast0.828_sharpness0.766.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,15 +1839,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>26.33540734572349</v>
+        <v>28.15113403859261</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.180212221029503</v>
+        <v>0.750422583379044</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1855,14 +1855,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.7129177892242969</v>
+        <v>0.8211991620928669</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_8_brightness26.335_contrast1.18_sharpness0.713.jpg</t>
+          <t>33_0_brightness28.151_gamma0.75_sharpness0.821.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,39 +1872,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.9450488799376031</v>
+        <v>1.019626384517316</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.5725416588219502</v>
+        <v>1.099181187486154</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>29.25954815180828</v>
+        <v>0.9089648170828414</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_I_gamma0.945_sharpness0.573_equalization29.26.jpg</t>
+          <t>34_7_contrast1.02_gamma1.099_sharpness0.909.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3.185868585293408</v>
+        <v>1.077988565547923</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.8856051197274988</v>
+        <v>0.410921968279432</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.5504586393063624</v>
+        <v>24.53191548690758</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_1_brightness3.186_contrast0.886_sharpness0.55.jpg</t>
+          <t>35_C_gamma1.078_sharpness0.411_equalization24.532.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,39 +1956,39 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>14.87813264704337</v>
+        <v>1.041322376035484</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.8961784960609889</v>
+        <v>1.087320712965702</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.5471275722717068</v>
+        <v>0.1800558864076415</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_2_brightness14.878_contrast0.896_gamma0.547.jpg</t>
+          <t>36_C_contrast1.041_gamma1.087_sharpness0.18.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.086980764023613</v>
+        <v>23.5782552493007</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.5183392784409903</v>
+        <v>1.054245706253254</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>23.79876278114424</v>
+        <v>0.6396977579850422</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_E_contrast1.087_sharpness0.518_equalization23.799.jpg</t>
+          <t>37_I_brightness23.578_contrast1.054_gamma0.64.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>23.51723598411484</v>
+        <v>0.5426528348733026</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.136556802725153</v>
+        <v>0.904928519392634</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.743418563876456</v>
+        <v>15.3726271389505</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_9_brightness23.517_contrast1.137_sharpness0.743.jpg</t>
+          <t>38_2_gamma0.543_sharpness0.905_equalization15.373.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,39 +2082,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>9.058583940839954</v>
+        <v>1.187067672607325</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.18075018210188</v>
+        <v>0.4514054479749051</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.8942242935329592</v>
+        <v>23.26142589033121</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_T_brightness9.059_contrast1.181_sharpness0.894.jpg</t>
+          <t>39_S_contrast1.187_sharpness0.451_equalization23.261.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,39 +2124,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>22.61157688656606</v>
+        <v>0.9876329927078109</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.01114725170546</v>
+        <v>0.9533473575130441</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1.088602095363695</v>
+        <v>0.2618490265547632</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_7_brightness22.612_contrast1.011_gamma1.089.jpg</t>
+          <t>40_9_contrast0.988_gamma0.953_sharpness0.262.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,16 +2166,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>20.80088521634958</v>
+        <v>1.008044400944674</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2183,22 +2183,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.5758646661523028</v>
+        <v>0.6849095754678823</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.5109971165619918</v>
+        <v>18.89824031526566</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_S_brightness20.801_gamma0.576_sharpness0.511.jpg</t>
+          <t>41_E_contrast1.008_gamma0.685_equalization18.898.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.9396777312211547</v>
+        <v>23.84128537283368</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.066995549229466</v>
+        <v>1.036376493887538</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.5506115923084103</v>
+        <v>0.9329487921326272</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_E_contrast0.94_gamma1.067_sharpness0.551.jpg</t>
+          <t>42_I_brightness23.841_contrast1.036_gamma0.933.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,39 +2250,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>25.58909848795029</v>
+        <v>0.9403071191133002</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.137336202007791</v>
+        <v>0.9281959316005239</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.866966156339935</v>
+        <v>21.26486458292627</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_2_brightness25.589_contrast1.137_sharpness0.867.jpg</t>
+          <t>43_0_contrast0.94_sharpness0.928_equalization21.265.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2301,15 +2301,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>20.50051271259689</v>
+        <v>21.84367564810122</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.6812155227510764</v>
+        <v>1.033138571273877</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.6423700556347482</v>
+        <v>0.4739284786835686</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_I_brightness20.501_gamma0.681_sharpness0.642.jpg</t>
+          <t>44_P_brightness21.844_contrast1.033_sharpness0.474.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,24 +2334,24 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>21.65571735640437</v>
+        <v>1.005682277107804</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.160790381688049</v>
+        <v>0.9495443899061091</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2359,14 +2359,14 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.9552869286068029</v>
+        <v>0.697035280363334</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_S_brightness21.656_contrast1.161_sharpness0.955.jpg</t>
+          <t>45_P_contrast1.006_gamma0.95_sharpness0.697.jpg</t>
         </is>
       </c>
     </row>
@@ -2381,19 +2381,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.9713756255959441</v>
+        <v>1.132368756126966</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.4811985640802977</v>
+        <v>0.6400440103354437</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2401,14 +2401,14 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>30.13699690713304</v>
+        <v>14.38595693488748</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_B_gamma0.971_sharpness0.481_equalization30.137.jpg</t>
+          <t>46_B_contrast1.132_gamma0.64_equalization14.386.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2427,30 +2427,30 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>13.59517810048038</v>
+        <v>3.518717574301386</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.8367782454252966</v>
+        <v>0.6129268307701417</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.5123059413615956</v>
+        <v>0.9780971757329129</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_S_brightness13.595_contrast0.837_gamma0.512.jpg</t>
+          <t>47_E_brightness3.519_gamma0.613_sharpness0.978.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.9677970821433833</v>
+        <v>0.8079150464645334</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2477,22 +2477,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.028845439354607</v>
+        <v>0.6956633322914925</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.4314985957053306</v>
+        <v>8.714735810124314</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_3_contrast0.968_gamma1.029_sharpness0.431.jpg</t>
+          <t>48_9_contrast0.808_gamma0.696_equalization8.715.jpg</t>
         </is>
       </c>
     </row>
